--- a/Stocks/OBEROIRLTY.xlsx
+++ b/Stocks/OBEROIRLTY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>396.91666666666669</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>384.07744840188082</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>377.8431016662887</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>43.608324547293535</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>3.4499999999999886</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>12.199999999999989</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.28278688524590095</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>379.07003824161507</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>2.5817113926880779</v>
       </c>
       <c r="Y67">
         <v>1.9154468464752583</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>369.95</v>
+      </c>
+      <c r="D83">
+        <v>377.3</v>
+      </c>
+      <c r="E83">
+        <v>368.95</v>
+      </c>
+      <c r="F83">
+        <v>376.25</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>374.16666666666669</v>
+      </c>
+      <c r="H83">
+        <v>373.54557231824344</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>379.5477775348748</v>
+      </c>
+      <c r="K83">
+        <v>367.29542689186195</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>56.241930175287635</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>7.3000000000000114</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>8.3500000000000227</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.87425149700598703</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>373.79369771422051</v>
+      </c>
+      <c r="W83">
+        <v>375.3421992013042</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-1.5485014870836835</v>
+      </c>
+      <c r="Y83">
+        <v>-1.3991074800784522</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>370.15</v>
+      </c>
+      <c r="D84">
+        <v>376</v>
+      </c>
+      <c r="E84">
+        <v>363.95</v>
+      </c>
+      <c r="F84">
+        <v>372</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>370.65000000000003</v>
+      </c>
+      <c r="H84">
+        <v>372.09778615912171</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>378.75938252712484</v>
+      </c>
+      <c r="K84">
+        <v>366.55199869367038</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>47.431046512523906</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>8.0500000000000114</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>12.050000000000011</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.66804979253112062</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>373.51774421972505</v>
+      </c>
+      <c r="W84">
+        <v>375.09462889009649</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-1.5768846703714416</v>
+      </c>
+      <c r="Y84">
+        <v>-1.43466291813705</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>374.1</v>
+      </c>
+      <c r="D85">
+        <v>380.95</v>
+      </c>
+      <c r="E85">
+        <v>367.1</v>
+      </c>
+      <c r="F85">
+        <v>374.7</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>374.25</v>
+      </c>
+      <c r="H85">
+        <v>373.17389307956086</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>379.24618640998597</v>
+      </c>
+      <c r="K85">
+        <v>366.67377676174362</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>53.247388948969643</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>7.5999999999999659</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>13.849999999999966</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.54873646209386173</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>373.6996297243827</v>
+      </c>
+      <c r="W85">
+        <v>375.06539712045969</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-1.3657673960769898</v>
+      </c>
+      <c r="Y85">
+        <v>-1.4208838137250379</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>378.65</v>
+      </c>
+      <c r="D86">
+        <v>384</v>
+      </c>
+      <c r="E86">
+        <v>372.1</v>
+      </c>
+      <c r="F86">
+        <v>381</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>379.0333333333333</v>
+      </c>
+      <c r="H86">
+        <v>376.10361320644711</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>380.3025894299891</v>
+      </c>
+      <c r="K86">
+        <v>367.87960414802285</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>64.65382277319479</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>8.8999999999999773</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>11.899999999999977</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.74789915966386511</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>374.82276361293918</v>
+      </c>
+      <c r="W86">
+        <v>375.50499733375898</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-0.68223372081979505</v>
+      </c>
+      <c r="Y86">
+        <v>-1.2731537951439893</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>381.9</v>
+      </c>
+      <c r="D87">
+        <v>393</v>
+      </c>
+      <c r="E87">
+        <v>379.05</v>
+      </c>
+      <c r="F87">
+        <v>391.9</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>387.98333333333329</v>
+      </c>
+      <c r="H87">
+        <v>382.04347326989023</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>383.12423622332483</v>
+      </c>
+      <c r="K87">
+        <v>370.3619143373511</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>76.86227542640988</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>12.849999999999966</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>13.949999999999989</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.92114695340501618</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>377.45003074941008</v>
+      </c>
+      <c r="W87">
+        <v>376.71944197570275</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>0.73058877370732489</v>
+      </c>
+      <c r="Y87">
+        <v>-0.87240528137372642</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>390</v>
+      </c>
+      <c r="D88">
+        <v>398.65</v>
+      </c>
+      <c r="E88">
+        <v>387.6</v>
+      </c>
+      <c r="F88">
+        <v>396.7</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>394.31666666666666</v>
+      </c>
+      <c r="H88">
+        <v>388.18006996827842</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>386.57440595147489</v>
+      </c>
+      <c r="K88">
+        <v>374.19260004016195</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>80.558602583713707</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>9.0999999999999659</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>11.049999999999955</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.82352941176470618</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V88">
+        <v>380.41156448027004</v>
+      </c>
+      <c r="W88">
+        <v>378.19948331083589</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>2.2120811694341569</v>
+      </c>
+      <c r="Y88">
+        <v>-0.25550799121214962</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="35"/>
+        <v>388.85</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="36"/>
+        <v>391.8</v>
+      </c>
+      <c r="AF88">
+        <f t="shared" si="37"/>
+        <v>393.15000000000003</v>
+      </c>
+      <c r="AG88">
+        <f t="shared" si="38"/>
+        <v>394.45000000000005</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>400</v>
+      </c>
+      <c r="D89">
+        <v>426.6</v>
+      </c>
+      <c r="E89">
+        <v>394.7</v>
+      </c>
+      <c r="F89">
+        <v>422.4</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>414.56666666666661</v>
+      </c>
+      <c r="H89">
+        <v>401.37336831747251</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>395.46898240670271</v>
+      </c>
+      <c r="K89">
+        <v>378.74980003123704</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>90.604307867908616</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>27.699999999999989</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>31.900000000000034</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.86833855799372917</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>386.87132379099774</v>
+      </c>
+      <c r="W89">
+        <v>381.47359565818135</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>5.3977281328163826</v>
+      </c>
+      <c r="Y89">
+        <v>0.87513923359355683</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="35"/>
+        <v>398.35</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="36"/>
+        <v>406.90000000000003</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="37"/>
+        <v>410.65000000000003</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="38"/>
+        <v>414.40000000000003</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>415.55</v>
+      </c>
+      <c r="D90">
+        <v>429.75</v>
+      </c>
+      <c r="E90">
+        <v>410</v>
+      </c>
+      <c r="F90">
+        <v>418</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>419.25</v>
+      </c>
+      <c r="H90">
+        <v>410.31168415873628</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>403.08698631632433</v>
+      </c>
+      <c r="K90">
+        <v>385.69428891318438</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>81.582762677382561</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>19.75</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>391.660350900075</v>
+      </c>
+      <c r="W90">
+        <v>384.17925523905683</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>7.4810956610181734</v>
+      </c>
+      <c r="Y90">
+        <v>2.1963305190784803</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>424.9</v>
+      </c>
+      <c r="D91">
+        <v>437.8</v>
+      </c>
+      <c r="E91">
+        <v>421.25</v>
+      </c>
+      <c r="F91">
+        <v>430.5</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>429.84999999999997</v>
+      </c>
+      <c r="H91">
+        <v>420.08084207936815</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>410.80098935714113</v>
+      </c>
+      <c r="K91">
+        <v>393.59555804358786</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>86.393779996149902</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>9.25</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>16.550000000000011</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.55891238670694821</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>397.6356815308327</v>
+      </c>
+      <c r="W91">
+        <v>387.61042151764519</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>10.025260013187506</v>
+      </c>
+      <c r="Y91">
+        <v>3.7621164179002857</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>430</v>
+      </c>
+      <c r="D92">
+        <v>435.85</v>
+      </c>
+      <c r="E92">
+        <v>415.15</v>
+      </c>
+      <c r="F92">
+        <v>417</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>422.66666666666669</v>
+      </c>
+      <c r="H92">
+        <v>421.37375437301739</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>416.36743616666536</v>
+      </c>
+      <c r="K92">
+        <v>398.38543403390167</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>63.869929303038205</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>20.700000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>8.9371980676329399E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>400.61480744916611</v>
+      </c>
+      <c r="W92">
+        <v>389.78742733115297</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>10.827380118013139</v>
+      </c>
+      <c r="Y92">
+        <v>5.1751691579228565</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>419.95</v>
+      </c>
+      <c r="D93">
+        <v>427.5</v>
+      </c>
+      <c r="E93">
+        <v>410.4</v>
+      </c>
+      <c r="F93">
+        <v>412</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>416.63333333333338</v>
+      </c>
+      <c r="H93">
+        <v>419.00354385317542</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>418.84133924073973</v>
+      </c>
+      <c r="K93">
+        <v>401.05533758192354</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>56.991115272997227</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>17.100000000000023</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>9.3567251461989506E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>402.36637553390977</v>
+      </c>
+      <c r="W93">
+        <v>391.43280308440092</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>10.933572449508858</v>
+      </c>
+      <c r="Y93">
+        <v>6.326849816240057</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>413.05</v>
+      </c>
+      <c r="D94">
+        <v>433.3</v>
+      </c>
+      <c r="E94">
+        <v>413.05</v>
+      </c>
+      <c r="F94">
+        <v>414</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>420.11666666666662</v>
+      </c>
+      <c r="H94">
+        <v>419.56010525992099</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>422.0543749650198</v>
+      </c>
+      <c r="K94">
+        <v>403.72081811927387</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>59.18880533993336</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>0.94999999999998863</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>20.25</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>4.6913580246913021E-2</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>404.15616391330826</v>
+      </c>
+      <c r="W94">
+        <v>393.10444730037119</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>11.051716612937071</v>
+      </c>
+      <c r="Y94">
+        <v>7.2718231755794598</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>416</v>
+      </c>
+      <c r="D95">
+        <v>422.4</v>
+      </c>
+      <c r="E95">
+        <v>397.25</v>
+      </c>
+      <c r="F95">
+        <v>400</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>406.55</v>
+      </c>
+      <c r="H95">
+        <v>413.05505262996053</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>422.13118052834875</v>
+      </c>
+      <c r="K95">
+        <v>402.28285853721303</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>40.901330169029585</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>2.75</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>25.149999999999977</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.10934393638170985</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>403.51675408049158</v>
+      </c>
+      <c r="W95">
+        <v>393.61522898182517</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>9.9015250986664114</v>
+      </c>
+      <c r="Y95">
+        <v>7.7977635601968505</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>402.2</v>
+      </c>
+      <c r="D96">
+        <v>408</v>
+      </c>
+      <c r="E96">
+        <v>387</v>
+      </c>
+      <c r="F96">
+        <v>388</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>394.33333333333331</v>
+      </c>
+      <c r="H96">
+        <v>403.69419298164689</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>418.99091818871568</v>
+      </c>
+      <c r="K96">
+        <v>398.8866677511657</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>30.728905359087793</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V96">
+        <v>401.12956114503135</v>
+      </c>
+      <c r="W96">
+        <v>393.19928609428257</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>7.9302750507487758</v>
+      </c>
+      <c r="Y96">
+        <v>7.8242658583072355</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>387.5</v>
+      </c>
+      <c r="D97">
+        <v>399</v>
+      </c>
+      <c r="E97">
+        <v>387.5</v>
+      </c>
+      <c r="F97">
+        <v>398.9</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>395.13333333333338</v>
+      </c>
+      <c r="H97">
+        <v>399.41376315749017</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>414.54849192455663</v>
+      </c>
+      <c r="K97">
+        <v>396.35629713979557</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>45.982626011222941</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>11.399999999999977</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>11.5</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.99130434782608501</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>400.78655173810347</v>
+      </c>
+      <c r="W97">
+        <v>393.62156119840978</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>7.1649905396936902</v>
+      </c>
+      <c r="Y97">
+        <v>7.6924107945845268</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>402.95</v>
+      </c>
+      <c r="D98">
+        <v>429.9</v>
+      </c>
+      <c r="E98">
+        <v>397.45</v>
+      </c>
+      <c r="F98">
+        <v>418</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>415.11666666666662</v>
+      </c>
+      <c r="H98">
+        <v>407.26521491207836</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>417.95993816354405</v>
+      </c>
+      <c r="K98">
+        <v>396.59934221984099</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>63.559044279177478</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>20.550000000000011</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>32.449999999999989</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.6332819722650237</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>403.43477454762603</v>
+      </c>
+      <c r="W98">
+        <v>395.42737148000907</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>8.0074030676169627</v>
+      </c>
+      <c r="Y98">
+        <v>7.7554092491910138</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>424.5</v>
+      </c>
+      <c r="D99">
+        <v>429.15</v>
+      </c>
+      <c r="E99">
+        <v>415.1</v>
+      </c>
+      <c r="F99">
+        <v>422.05</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>422.09999999999997</v>
+      </c>
+      <c r="H99">
+        <v>414.68260745603914</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>420.44661857164539</v>
+      </c>
+      <c r="K99">
+        <v>400.71059950432078</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>66.452327664038947</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>6.9499999999999886</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>14.049999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.49466192170818585</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>406.29865538645282</v>
+      </c>
+      <c r="W99">
+        <v>397.39941803704545</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>8.8992373494073718</v>
+      </c>
+      <c r="Y99">
+        <v>7.9841748692342858</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>426.8</v>
+      </c>
+      <c r="D100">
+        <v>432</v>
+      </c>
+      <c r="E100">
+        <v>421.1</v>
+      </c>
+      <c r="F100">
+        <v>425.9</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>426.33333333333331</v>
+      </c>
+      <c r="H100">
+        <v>420.50797039468625</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>423.0140366668353</v>
+      </c>
+      <c r="K100">
+        <v>405.2415773922495</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>69.344507120581483</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>4.7999999999999545</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>10.899999999999977</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.44036697247706097</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>409.31424686546006</v>
+      </c>
+      <c r="W100">
+        <v>399.51057225652357</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>9.8036746089364897</v>
+      </c>
+      <c r="Y100">
+        <v>8.3480748171747265</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>428.2</v>
+      </c>
+      <c r="D101">
+        <v>428.2</v>
+      </c>
+      <c r="E101">
+        <v>410.85</v>
+      </c>
+      <c r="F101">
+        <v>415.35</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>418.13333333333338</v>
+      </c>
+      <c r="H101">
+        <v>419.32065186400985</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>424.16647296309412</v>
+      </c>
+      <c r="K101">
+        <v>406.48789352730518</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>53.535447851735263</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>17.349999999999966</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.25936599423631174</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>410.24282427077389</v>
+      </c>
+      <c r="W101">
+        <v>400.68386320048478</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>9.558961070289115</v>
+      </c>
+      <c r="Y101">
+        <v>8.5902520677976035</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>414</v>
+      </c>
+      <c r="D102">
+        <v>422.25</v>
+      </c>
+      <c r="E102">
+        <v>403.3</v>
+      </c>
+      <c r="F102">
+        <v>410</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>411.84999999999997</v>
+      </c>
+      <c r="H102">
+        <v>415.58532593200493</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>423.74059008240653</v>
+      </c>
+      <c r="K102">
+        <v>405.77947274345956</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>46.775766686745904</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>6.6999999999999886</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>18.949999999999989</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.35356200527704446</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>410.20546669065482</v>
+      </c>
+      <c r="W102">
+        <v>401.37394740785629</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>8.8315192827985243</v>
+      </c>
+      <c r="Y102">
+        <v>8.6385055107977884</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>421.8</v>
+      </c>
+      <c r="D103">
+        <v>439.9</v>
+      </c>
+      <c r="E103">
+        <v>413.4</v>
+      </c>
+      <c r="F103">
+        <v>423</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>425.43333333333334</v>
+      </c>
+      <c r="H103">
+        <v>420.50932963266916</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J103">
+        <v>427.33157006409397</v>
+      </c>
+      <c r="K103">
+        <v>407.47292324491298</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>61.529751861476257</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>9.6000000000000227</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>26.5</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.36226415094339709</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>412.17385643055405</v>
+      </c>
+      <c r="W103">
+        <v>402.97587722949658</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>9.1979792010574783</v>
+      </c>
+      <c r="Y103">
+        <v>8.7504002488497257</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>423</v>
+      </c>
+      <c r="D104">
+        <v>424</v>
+      </c>
+      <c r="E104">
+        <v>416.15</v>
+      </c>
+      <c r="F104">
+        <v>420.05</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>420.06666666666666</v>
+      </c>
+      <c r="H104">
+        <v>420.28799814966794</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>426.59122116096199</v>
+      </c>
+      <c r="K104">
+        <v>409.4011625238212</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>57.044351128812274</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>3.9000000000000341</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>7.8500000000000227</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.49681528662420671</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>413.38557082585345</v>
+      </c>
+      <c r="W104">
+        <v>404.2406270643487</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>9.1449437615047486</v>
+      </c>
+      <c r="Y104">
+        <v>8.8293089513807299</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
